--- a/lr3/Диаграмма напряжений.xlsx
+++ b/lr3/Диаграмма напряжений.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Трехфазный ток" sheetId="3" r:id="rId1"/>
@@ -442,6 +442,162 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9178560101490735E-2"/>
+                  <c:y val="-1.2686330478909068E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:t>Uab</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-67CB-4319-A4BA-C80F647398AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:t>Ubc</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8FDD-485A-A1CC-2AEEA44F72D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6117982873453388E-3"/>
+                  <c:y val="-2.5372660957817951E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:t>Uac</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-67CB-4319-A4BA-C80F647398AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Трехфазный ток'!$E$7:$E$47</c:f>

--- a/lr3/Диаграмма напряжений.xlsx
+++ b/lr3/Диаграмма напряжений.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Трехфазный ток" sheetId="3" r:id="rId1"/>
+    <sheet name="ЛР" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Ток</t>
   </si>
@@ -81,6 +82,21 @@
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>Ua</t>
+  </si>
+  <si>
+    <t>Ub</t>
+  </si>
+  <si>
+    <t>Uс</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Iс</t>
   </si>
 </sst>
 </file>
@@ -149,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,12 +173,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -171,6 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -238,7 +264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -470,9 +495,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-67CB-4319-A4BA-C80F647398AA}"/>
                 </c:ext>
@@ -480,7 +503,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -500,9 +522,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8FDD-485A-A1CC-2AEEA44F72D4}"/>
                 </c:ext>
@@ -535,9 +555,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-67CB-4319-A4BA-C80F647398AA}"/>
                 </c:ext>
@@ -764,6 +782,1126 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8FDD-485A-A1CC-2AEEA44F72D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1924026704"/>
+        <c:axId val="1924022128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1924026704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="-250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="thickThin" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924022128"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1924022128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="-250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924026704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Векторная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> диаграмма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-47D7-4B5E-9C58-7D61BA4DC345}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-47D7-4B5E-9C58-7D61BA4DC345}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E1AA-4BB9-B8E7-798B4091BBBE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-47D7-4B5E-9C58-7D61BA4DC345}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21947351728512537"/>
+                  <c:y val="-1.2686355678799582E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:t>Ua</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-47D7-4B5E-9C58-7D61BA4DC345}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3580716777672056E-2"/>
+                  <c:y val="-0.18970736629667012"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:t>Ub</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-47D7-4B5E-9C58-7D61BA4DC345}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3878845543926379E-2"/>
+                  <c:y val="0.16279852001345443"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Uc</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-47D7-4B5E-9C58-7D61BA4DC345}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21820488423723439"/>
+                  <c:y val="0.1170534813319879"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Uac</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-47D7-4B5E-9C58-7D61BA4DC345}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6790358388836028E-2"/>
+                  <c:y val="0.3148335015136226"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Ubc</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-E1AA-4BB9-B8E7-798B4091BBBE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.28290516967967017"/>
+                  <c:y val="-0.1506895391860075"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{33BAFBB3-1155-4AEA-94D9-9F27B7F42C86}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{33BAFBB3-1155-4AEA-94D9-9F27B7F42C86}</c15:txfldGUID>
+                      <c15:f>ЛР!$D$22</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Uab</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E1AA-4BB9-B8E7-798B4091BBBE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8058991436726928E-3"/>
+                  <c:y val="6.7272115708039024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D06C1587-02D1-481D-A4BB-719AC36B66F7}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D06C1587-02D1-481D-A4BB-719AC36B66F7}</c15:txfldGUID>
+                      <c15:f>ЛР!$D$25</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ia</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-47D7-4B5E-9C58-7D61BA4DC345}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0447193149381543E-2"/>
+                  <c:y val="-2.1527077026572486E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DBED0595-B98D-4A0F-8C8F-77769E2F39F2}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{DBED0595-B98D-4A0F-8C8F-77769E2F39F2}</c15:txfldGUID>
+                      <c15:f>ЛР!$D$28</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ib</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-47D7-4B5E-9C58-7D61BA4DC345}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7088487155090392E-2"/>
+                  <c:y val="-9.4180961991254617E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F5E4CFBC-E307-4DCE-8AB4-178ABFCD097D}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F5E4CFBC-E307-4DCE-8AB4-178ABFCD097D}</c15:txfldGUID>
+                      <c15:f>ЛР!$D$31</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ic</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E1AA-4BB9-B8E7-798B4091BBBE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2686330478908975E-3"/>
+                  <c:y val="1.0763538513286243E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5A94769A-0B82-4EEE-AB76-1DA3A07F4192}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5A94769A-0B82-4EEE-AB76-1DA3A07F4192}</c15:txfldGUID>
+                      <c15:f>ЛР!$D$40</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Iс</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-E1AA-4BB9-B8E7-798B4091BBBE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1864890580399619E-2"/>
+                  <c:y val="-3.6326942482341092E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{20B11D71-9704-4B11-BE09-C030168321CA}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{20B11D71-9704-4B11-BE09-C030168321CA}</c15:txfldGUID>
+                      <c15:f>ЛР!$D$37</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ib</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E1AA-4BB9-B8E7-798B4091BBBE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ЛР!$E$7:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.01</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47.63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.63</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.010000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ЛР!$F$7:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-27.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>188.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-47D7-4B5E-9C58-7D61BA4DC345}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -993,7 +2131,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1522,6 +3216,43 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>314323</xdr:colOff>
       <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314323</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1811,7 +3542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
@@ -2231,4 +3962,465 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>220</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>A7</f>
+        <v>Ua</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>-110</v>
+      </c>
+      <c r="C8">
+        <v>-190</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <f>B7*$B$10</f>
+        <v>220</v>
+      </c>
+      <c r="F8" s="6">
+        <f>C7*$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>-110</v>
+      </c>
+      <c r="C9">
+        <v>190</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>A8</f>
+        <v>Ub</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <f>B8*$B$10</f>
+        <v>-110</v>
+      </c>
+      <c r="F11" s="6">
+        <f>C8*B10</f>
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>220</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>A9</f>
+        <v>Uс</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>47.63</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-27.5</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <f>B9*B10</f>
+        <v>-110</v>
+      </c>
+      <c r="F14" s="6">
+        <f>C9*B10</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-7.62</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
+        <v>40.01</v>
+      </c>
+      <c r="C16" s="6">
+        <v>188</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6">
+        <f>E8</f>
+        <v>220</v>
+      </c>
+      <c r="F16" s="6">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <f>E14</f>
+        <v>-110</v>
+      </c>
+      <c r="F17" s="6">
+        <f>F14</f>
+        <v>190</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6">
+        <f>E11</f>
+        <v>-110</v>
+      </c>
+      <c r="F19" s="6">
+        <f>F11</f>
+        <v>-190</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <f>E14</f>
+        <v>-110</v>
+      </c>
+      <c r="F20" s="6">
+        <f>F14</f>
+        <v>190</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <f>E8</f>
+        <v>220</v>
+      </c>
+      <c r="F22" s="6">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
+        <f>E11</f>
+        <v>-110</v>
+      </c>
+      <c r="F23" s="8">
+        <f>F11</f>
+        <v>-190</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="str">
+        <f>A13</f>
+        <v>Ia</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <f>B13*B17</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <f>C13*B17</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="str">
+        <f>A14</f>
+        <v>Ib</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <f>B14*B17</f>
+        <v>47.63</v>
+      </c>
+      <c r="F29" s="6">
+        <f>C14*B17</f>
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="str">
+        <f>A15</f>
+        <v>Ic</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <f>B15*B17</f>
+        <v>-7.62</v>
+      </c>
+      <c r="F32" s="6">
+        <f>C15*B17</f>
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="str">
+        <f>A16</f>
+        <v>In</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8">
+        <f>B16*B17</f>
+        <v>40.01</v>
+      </c>
+      <c r="F35" s="8">
+        <f>C16*B17</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="str">
+        <f>D28</f>
+        <v>Ib</v>
+      </c>
+      <c r="E37" s="6">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <f>F26</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <f>E37+E29</f>
+        <v>47.63</v>
+      </c>
+      <c r="F38" s="6">
+        <f>F37+F29</f>
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <f>E38</f>
+        <v>47.63</v>
+      </c>
+      <c r="F40">
+        <f>F38</f>
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f>E40+E32</f>
+        <v>40.010000000000005</v>
+      </c>
+      <c r="F41">
+        <f>F40+F32</f>
+        <v>188.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/lr3/Диаграмма напряжений.xlsx
+++ b/lr3/Диаграмма напряжений.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Ток</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>Iс</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>емкость</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
+  <si>
+    <t>мкФ</t>
   </si>
 </sst>
 </file>
@@ -264,6 +276,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -495,7 +508,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-67CB-4319-A4BA-C80F647398AA}"/>
                 </c:ext>
@@ -503,6 +518,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -522,7 +538,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8FDD-485A-A1CC-2AEEA44F72D4}"/>
                 </c:ext>
@@ -555,7 +573,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-67CB-4319-A4BA-C80F647398AA}"/>
                 </c:ext>
@@ -1230,16 +1250,60 @@
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:rPr lang="en-US" sz="1800"/>
                       <a:t>Ua</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1265,16 +1329,60 @@
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:rPr lang="en-US" sz="1600"/>
                       <a:t>Ub</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1294,8 +1402,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.3878845543926379E-2"/>
-                  <c:y val="0.16279852001345443"/>
+                  <c:x val="0.11037107516650804"/>
+                  <c:y val="0.1533804238143289"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1329,8 +1437,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21820488423723439"/>
-                  <c:y val="0.1170534813319879"/>
+                  <c:x val="0.18141452584839832"/>
+                  <c:y val="0.16010763538513287"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1364,7 +1472,7 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6790358388836028E-2"/>
+                  <c:x val="1.2686330478908975E-3"/>
                   <c:y val="0.3148335015136226"/>
                 </c:manualLayout>
               </c:layout>
@@ -1399,8 +1507,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.28290516967967017"/>
-                  <c:y val="-0.1506895391860075"/>
+                  <c:x val="0.26895020615287019"/>
+                  <c:y val="-0.18298015472586623"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1549,8 +1657,8 @@
               <c:idx val="25"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7088487155090392E-2"/>
-                  <c:y val="-9.4180961991254617E-3"/>
+                  <c:x val="-3.6790358388836028E-2"/>
+                  <c:y val="-8.0726538849647811E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1920,8 +2028,8 @@
         <c:axId val="1924026704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
-          <c:min val="-250"/>
+          <c:max val="250"/>
+          <c:min val="-200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1985,7 +2093,7 @@
         <c:axId val="1924022128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
+          <c:max val="250"/>
           <c:min val="-250"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3244,16 +3352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>314323</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3966,13 +4074,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:H41"/>
+  <dimension ref="A6:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4418,6 +4529,64 @@
         <v>188.1</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <f>1/(A55*2*3.04*$B$53)</f>
+        <v>3.2894736842105261E-3</v>
+      </c>
+      <c r="C55">
+        <f>B55*1000000</f>
+        <v>3289.4736842105262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B57" si="0">1/(A56*2*3.04*$B$53)</f>
+        <v>8.2236842105263153E-4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C57" si="1">B56*1000000</f>
+        <v>822.36842105263156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.3157894736842105E-4</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>131.57894736842104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/lr3/Диаграмма напряжений.xlsx
+++ b/lr3/Диаграмма напряжений.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Ток</t>
   </si>
@@ -110,6 +110,12 @@
   <si>
     <t>мкФ</t>
   </si>
+  <si>
+    <t>Треугольник</t>
+  </si>
+  <si>
+    <t>Звезда</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -194,12 +200,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -209,6 +377,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1250,24 +1439,9 @@
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1800"/>
                       <a:t>Ua</a:t>
@@ -1275,35 +1449,6 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1537,7 +1682,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{33BAFBB3-1155-4AEA-94D9-9F27B7F42C86}</c15:txfldGUID>
-                      <c15:f>ЛР!$D$22</c15:f>
+                      <c15:f>ЛР!$E$22</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -1587,7 +1732,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{D06C1587-02D1-481D-A4BB-719AC36B66F7}</c15:txfldGUID>
-                      <c15:f>ЛР!$D$25</c15:f>
+                      <c15:f>ЛР!$E$25</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -1637,7 +1782,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{DBED0595-B98D-4A0F-8C8F-77769E2F39F2}</c15:txfldGUID>
-                      <c15:f>ЛР!$D$28</c15:f>
+                      <c15:f>ЛР!$E$28</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -1687,7 +1832,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{F5E4CFBC-E307-4DCE-8AB4-178ABFCD097D}</c15:txfldGUID>
-                      <c15:f>ЛР!$D$31</c15:f>
+                      <c15:f>ЛР!$E$31</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -1737,7 +1882,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{5A94769A-0B82-4EEE-AB76-1DA3A07F4192}</c15:txfldGUID>
-                      <c15:f>ЛР!$D$40</c15:f>
+                      <c15:f>ЛР!$E$40</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -1787,7 +1932,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{20B11D71-9704-4B11-BE09-C030168321CA}</c15:txfldGUID>
-                      <c15:f>ЛР!$D$37</c15:f>
+                      <c15:f>ЛР!$E$37</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -1846,7 +1991,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>ЛР!$E$7:$E$44</c:f>
+              <c:f>ЛР!$F$7:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1927,7 +2072,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ЛР!$F$7:$F$44</c:f>
+              <c:f>ЛР!$G$7:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -3352,16 +3497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114298</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371473</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3648,14 +3793,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:H41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
@@ -4066,6 +4219,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4074,458 +4230,491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:H57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="11"/>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>220</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="str">
         <f>A7</f>
         <v>Ua</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>-110</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>-190</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D8" s="11"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <f>B7*$B$10</f>
         <v>220</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>C7*$B$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>-110</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>190</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="C10" s="19"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6" t="str">
         <f>A8</f>
         <v>Ub</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <f>B8*$B$10</f>
         <v>-110</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <f>C8*B10</f>
         <v>-190</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="13">
         <v>0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="14">
         <v>220</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="13"/>
+      <c r="E13" s="6" t="str">
         <f>A9</f>
         <v>Uс</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="13">
         <v>47.63</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="14">
         <v>-27.5</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
+      <c r="D14" s="13"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <f>B9*B10</f>
         <v>-110</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <f>C9*B10</f>
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="13">
         <v>-7.62</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="14">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="13">
         <v>40.01</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="14">
         <v>188</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E16" s="6">
-        <f>E8</f>
-        <v>220</v>
       </c>
       <c r="F16" s="6">
         <f>F8</f>
+        <v>220</v>
+      </c>
+      <c r="G16" s="6">
+        <f>G8</f>
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <f>E14</f>
-        <v>-110</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6">
         <f>F14</f>
+        <v>-110</v>
+      </c>
+      <c r="G17" s="6">
+        <f>G14</f>
         <v>190</v>
       </c>
-      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="E19" s="6">
-        <f>E11</f>
-        <v>-110</v>
       </c>
       <c r="F19" s="6">
         <f>F11</f>
+        <v>-110</v>
+      </c>
+      <c r="G19" s="6">
+        <f>G11</f>
         <v>-190</v>
       </c>
-      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <f>E14</f>
-        <v>-110</v>
-      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="6"/>
       <c r="F20" s="6">
         <f>F14</f>
+        <v>-110</v>
+      </c>
+      <c r="G20" s="6">
+        <f>G14</f>
         <v>190</v>
       </c>
-      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="6" t="s">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="E22" s="6">
-        <f>E8</f>
-        <v>220</v>
       </c>
       <c r="F22" s="6">
         <f>F8</f>
+        <v>220</v>
+      </c>
+      <c r="G22" s="6">
+        <f>G8</f>
         <v>0</v>
       </c>
-      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8">
-        <f>E11</f>
-        <v>-110</v>
-      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
       <c r="F23" s="8">
         <f>F11</f>
+        <v>-110</v>
+      </c>
+      <c r="G23" s="8">
+        <f>G11</f>
         <v>-190</v>
       </c>
-      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="6" t="str">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="str">
         <f>A13</f>
         <v>Ia</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
         <f>B13*B17</f>
         <v>0</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <f>C13*B17</f>
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="6" t="str">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="6" t="str">
         <f>A14</f>
         <v>Ib</v>
       </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
       <c r="F28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
         <f>B14*B17</f>
         <v>47.63</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <f>C14*B17</f>
         <v>-27.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="6"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="6" t="str">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="6" t="str">
         <f>A15</f>
         <v>Ic</v>
       </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
-      <c r="E32" s="6">
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
         <f>B15*B17</f>
         <v>-7.62</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <f>C15*B17</f>
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="str">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="6" t="str">
         <f>A16</f>
         <v>In</v>
       </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
       <c r="F34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8">
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8">
         <f>B16*B17</f>
         <v>40.01</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <f>C16*B17</f>
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="6" t="str">
-        <f>D28</f>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="str">
+        <f>E28</f>
         <v>Ib</v>
-      </c>
-      <c r="E37" s="6">
-        <f>E26</f>
-        <v>0</v>
       </c>
       <c r="F37" s="6">
         <f>F26</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <f>G26</f>
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6">
-        <f>E37+E29</f>
-        <v>47.63</v>
-      </c>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="6"/>
       <c r="F38" s="6">
         <f>F37+F29</f>
+        <v>47.63</v>
+      </c>
+      <c r="G38" s="6">
+        <f>G37+G29</f>
         <v>192.5</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
         <v>23</v>
-      </c>
-      <c r="E40">
-        <f>E38</f>
-        <v>47.63</v>
       </c>
       <c r="F40">
         <f>F38</f>
+        <v>47.63</v>
+      </c>
+      <c r="G40">
+        <f>G38</f>
         <v>192.5</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <f>E40+E32</f>
-        <v>40.010000000000005</v>
-      </c>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F41">
         <f>F40+F32</f>
+        <v>40.010000000000005</v>
+      </c>
+      <c r="G41">
+        <f>G40+G32</f>
         <v>188.1</v>
       </c>
     </row>
@@ -4588,6 +4777,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/lr3/Диаграмма напряжений.xlsx
+++ b/lr3/Диаграмма напряжений.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Трехфазный ток" sheetId="3" r:id="rId1"/>
@@ -377,7 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -398,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -767,6 +767,21 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-67CB-4319-A4BA-C80F647398AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2F61-4597-A020-0EA0E4384787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3795,19 +3810,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4232,7 +4247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4243,25 +4258,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="F6" t="s">
         <v>17</v>
       </c>
@@ -4270,16 +4285,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>220</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="6" t="str">
         <f>A7</f>
         <v>Ua</v>
@@ -4292,16 +4307,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>-110</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>-190</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
         <f>B7*$B$10</f>
@@ -4313,29 +4328,29 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>-110</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>190</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="6" t="str">
         <f>A8</f>
         <v>Ub</v>
@@ -4348,10 +4363,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
         <f>B8*$B$10</f>
@@ -4363,31 +4378,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>0</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>220</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="6" t="str">
         <f>A9</f>
         <v>Uс</v>
@@ -4400,16 +4415,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>47.63</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>-27.5</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
         <f>B9*B10</f>
@@ -4421,16 +4436,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>-7.62</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4438,16 +4453,16 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>40.01</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>188</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="6" t="s">
         <v>7</v>
       </c>
@@ -4463,14 +4478,14 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>1</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
         <f>F14</f>

--- a/lr3/Диаграмма напряжений.xlsx
+++ b/lr3/Диаграмма напряжений.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Трехфазный ток" sheetId="3" r:id="rId1"/>
     <sheet name="ЛР" sheetId="4" r:id="rId2"/>
+    <sheet name="ЛР_ALEX" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>Ток</t>
   </si>
@@ -367,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -397,6 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2359,6 +2361,1170 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Векторная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> диаграмма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4CE0-4106-8C07-D3C952224890}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4CE0-4106-8C07-D3C952224890}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4CE0-4106-8C07-D3C952224890}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4CE0-4106-8C07-D3C952224890}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21947351728512537"/>
+                  <c:y val="-1.2686355678799582E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800"/>
+                      <a:t>Ua</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3580716777672056E-2"/>
+                  <c:y val="-0.18970736629667012"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600"/>
+                      <a:t>Ub</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11037107516650804"/>
+                  <c:y val="0.1533804238143289"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Uc</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18141452584839832"/>
+                  <c:y val="0.16010763538513287"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Uac</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2686330478908975E-3"/>
+                  <c:y val="0.3148335015136226"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Ubc</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26895020615287019"/>
+                  <c:y val="-0.18298015472586623"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{33BAFBB3-1155-4AEA-94D9-9F27B7F42C86}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{33BAFBB3-1155-4AEA-94D9-9F27B7F42C86}</c15:txfldGUID>
+                      <c15:f>ЛР_ALEX!$E$22</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Uab</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8058991436726928E-3"/>
+                  <c:y val="6.7272115708039024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D06C1587-02D1-481D-A4BB-719AC36B66F7}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D06C1587-02D1-481D-A4BB-719AC36B66F7}</c15:txfldGUID>
+                      <c15:f>ЛР_ALEX!$E$25</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ia</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0447193149381543E-2"/>
+                  <c:y val="-2.1527077026572486E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DBED0595-B98D-4A0F-8C8F-77769E2F39F2}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{DBED0595-B98D-4A0F-8C8F-77769E2F39F2}</c15:txfldGUID>
+                      <c15:f>ЛР_ALEX!$E$28</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ib</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6790358388836028E-2"/>
+                  <c:y val="-8.0726538849647811E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F5E4CFBC-E307-4DCE-8AB4-178ABFCD097D}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F5E4CFBC-E307-4DCE-8AB4-178ABFCD097D}</c15:txfldGUID>
+                      <c15:f>ЛР_ALEX!$E$31</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ic</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2686330478908975E-3"/>
+                  <c:y val="1.0763538513286243E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5A94769A-0B82-4EEE-AB76-1DA3A07F4192}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5A94769A-0B82-4EEE-AB76-1DA3A07F4192}</c15:txfldGUID>
+                      <c15:f>ЛР_ALEX!$E$40</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Iс</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1864890580399619E-2"/>
+                  <c:y val="-3.6326942482341092E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{20B11D71-9704-4B11-BE09-C030168321CA}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{20B11D71-9704-4B11-BE09-C030168321CA}</c15:txfldGUID>
+                      <c15:f>ЛР_ALEX!$E$37</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ib</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-4CE0-4106-8C07-D3C952224890}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ЛР_ALEX!$F$7:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>127.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>127.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ЛР_ALEX!$G$7:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-4CE0-4106-8C07-D3C952224890}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1924026704"/>
+        <c:axId val="1924022128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1924026704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="thickThin" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924022128"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1924022128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="-250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924026704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2439,6 +3605,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2956,6 +4162,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3509,6 +5231,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3810,19 +5569,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4247,7 +6006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4258,11 +6017,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4799,4 +6558,562 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
+        <v>220</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6" t="str">
+        <f>A7</f>
+        <v>Ua</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-110</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-190</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <f>B7*$B$10</f>
+        <v>220</v>
+      </c>
+      <c r="G8" s="6">
+        <f>C7*$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10">
+        <v>-110</v>
+      </c>
+      <c r="C9" s="11">
+        <v>190</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6" t="str">
+        <f>A8</f>
+        <v>Ub</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <f>B8*$B$10</f>
+        <v>-110</v>
+      </c>
+      <c r="G11" s="6">
+        <f>C8*B10</f>
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6" t="str">
+        <f>A9</f>
+        <v>Uс</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-7.3</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <f>B9*B10</f>
+        <v>-110</v>
+      </c>
+      <c r="G14" s="6">
+        <f>C9*B10</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12">
+        <v>12.77</v>
+      </c>
+      <c r="C16" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6">
+        <f>F8</f>
+        <v>220</v>
+      </c>
+      <c r="G16" s="6">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14">
+        <v>10</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <f>F14</f>
+        <v>-110</v>
+      </c>
+      <c r="G17" s="6">
+        <f>G14</f>
+        <v>190</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <f>F11</f>
+        <v>-110</v>
+      </c>
+      <c r="G19" s="6">
+        <f>G11</f>
+        <v>-190</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <f>F14</f>
+        <v>-110</v>
+      </c>
+      <c r="G20" s="6">
+        <f>G14</f>
+        <v>190</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <f>F8</f>
+        <v>220</v>
+      </c>
+      <c r="G22" s="6">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <f>F11</f>
+        <v>-110</v>
+      </c>
+      <c r="G23" s="8">
+        <f>G11</f>
+        <v>-190</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="str">
+        <f>A13</f>
+        <v>Ia</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <f>B13*B17</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f>C13*B17</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="6" t="str">
+        <f>A14</f>
+        <v>Ib</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <f>B14*B17</f>
+        <v>127</v>
+      </c>
+      <c r="G29" s="6">
+        <f>C14*B17</f>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="6" t="str">
+        <f>A15</f>
+        <v>Ic</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <f>B15*B17</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G32" s="6">
+        <f>C15*B17</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="6" t="str">
+        <f>A16</f>
+        <v>In</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8">
+        <f>B16*B17</f>
+        <v>127.69999999999999</v>
+      </c>
+      <c r="G35" s="8">
+        <f>C16*B17</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="str">
+        <f>E28</f>
+        <v>Ib</v>
+      </c>
+      <c r="F37" s="6">
+        <f>F26</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <f>G26</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <f>F37+F29</f>
+        <v>127</v>
+      </c>
+      <c r="G38" s="6">
+        <f>G37+G29</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <f>F38</f>
+        <v>127</v>
+      </c>
+      <c r="G40">
+        <f>G38</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f>F40+F32</f>
+        <v>127.7</v>
+      </c>
+      <c r="G41">
+        <f>G40+G32</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <f>1/(A55*2*3.04*$B$53)</f>
+        <v>3.2894736842105261E-3</v>
+      </c>
+      <c r="C55">
+        <f>B55*1000000</f>
+        <v>3289.4736842105262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B57" si="0">1/(A56*2*3.04*$B$53)</f>
+        <v>8.2236842105263153E-4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C57" si="1">B56*1000000</f>
+        <v>822.36842105263156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.3157894736842105E-4</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>131.57894736842104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/lr3/Диаграмма напряжений.xlsx
+++ b/lr3/Диаграмма напряжений.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="15420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Трехфазный ток" sheetId="3" r:id="rId1"/>
     <sheet name="ЛР" sheetId="4" r:id="rId2"/>
     <sheet name="ЛР_ALEX" sheetId="5" r:id="rId3"/>
+    <sheet name="КР_ALEX" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
   <si>
     <t>Ток</t>
   </si>
@@ -368,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -398,6 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -467,7 +469,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -699,9 +700,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-67CB-4319-A4BA-C80F647398AA}"/>
                 </c:ext>
@@ -709,7 +708,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -729,9 +727,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8FDD-485A-A1CC-2AEEA44F72D4}"/>
                 </c:ext>
@@ -764,9 +760,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-67CB-4319-A4BA-C80F647398AA}"/>
                 </c:ext>
@@ -1241,7 +1235,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1473,9 +1466,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-47D7-4B5E-9C58-7D61BA4DC345}"/>
                 </c:ext>
@@ -1552,9 +1543,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-47D7-4B5E-9C58-7D61BA4DC345}"/>
                 </c:ext>
@@ -1587,9 +1576,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-47D7-4B5E-9C58-7D61BA4DC345}"/>
                 </c:ext>
@@ -1622,9 +1609,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-47D7-4B5E-9C58-7D61BA4DC345}"/>
                 </c:ext>
@@ -1657,9 +1642,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-E1AA-4BB9-B8E7-798B4091BBBE}"/>
                 </c:ext>
@@ -1695,7 +1678,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{33BAFBB3-1155-4AEA-94D9-9F27B7F42C86}</c15:txfldGUID>
@@ -1745,7 +1727,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{D06C1587-02D1-481D-A4BB-719AC36B66F7}</c15:txfldGUID>
@@ -1795,7 +1776,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{DBED0595-B98D-4A0F-8C8F-77769E2F39F2}</c15:txfldGUID>
@@ -1845,7 +1825,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{F5E4CFBC-E307-4DCE-8AB4-178ABFCD097D}</c15:txfldGUID>
@@ -1895,7 +1874,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{5A94769A-0B82-4EEE-AB76-1DA3A07F4192}</c15:txfldGUID>
@@ -1945,7 +1923,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{20B11D71-9704-4B11-BE09-C030168321CA}</c15:txfldGUID>
@@ -3525,6 +3502,1170 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Векторная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> диаграмма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-14B0-4024-9A56-8AFB63066BB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-14B0-4024-9A56-8AFB63066BB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-14B0-4024-9A56-8AFB63066BB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-14B0-4024-9A56-8AFB63066BB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21947351728512537"/>
+                  <c:y val="-1.2686355678799582E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800"/>
+                      <a:t>Ua</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3580716777672056E-2"/>
+                  <c:y val="-0.18970736629667012"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600"/>
+                      <a:t>Ub</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11037107516650804"/>
+                  <c:y val="0.1533804238143289"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Uc</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18141452584839832"/>
+                  <c:y val="0.16010763538513287"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Uac</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8058991436726928E-3"/>
+                  <c:y val="0.2436687256993178"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Ubc</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.35648588645734219"/>
+                  <c:y val="-0.21923395527220729"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{33BAFBB3-1155-4AEA-94D9-9F27B7F42C86}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{33BAFBB3-1155-4AEA-94D9-9F27B7F42C86}</c15:txfldGUID>
+                      <c15:f>КР_ALEX!$E$22</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Uab</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.4700285442435862E-2"/>
+                  <c:y val="-0.1260813093227395"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D06C1587-02D1-481D-A4BB-719AC36B66F7}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D06C1587-02D1-481D-A4BB-719AC36B66F7}</c15:txfldGUID>
+                      <c15:f>КР_ALEX!$E$25</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ia</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6790358388835979E-2"/>
+                  <c:y val="-1.8841602503614541E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DBED0595-B98D-4A0F-8C8F-77769E2F39F2}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{DBED0595-B98D-4A0F-8C8F-77769E2F39F2}</c15:txfldGUID>
+                      <c15:f>КР_ALEX!$E$28</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ib</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9327624484617824E-2"/>
+                  <c:y val="-5.1040115453846215E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F5E4CFBC-E307-4DCE-8AB4-178ABFCD097D}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F5E4CFBC-E307-4DCE-8AB4-178ABFCD097D}</c15:txfldGUID>
+                      <c15:f>КР_ALEX!$E$31</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ic</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.2461148112908347E-2"/>
+                  <c:y val="-6.8457681460512398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5A94769A-0B82-4EEE-AB76-1DA3A07F4192}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5A94769A-0B82-4EEE-AB76-1DA3A07F4192}</c15:txfldGUID>
+                      <c15:f>КР_ALEX!$E$40</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Iс</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.9625753250872188E-2"/>
+                  <c:y val="-1.8871417507856834E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{20B11D71-9704-4B11-BE09-C030168321CA}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{20B11D71-9704-4B11-BE09-C030168321CA}</c15:txfldGUID>
+                      <c15:f>КР_ALEX!$E$37</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Ib</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-14B0-4024-9A56-8AFB63066BB5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>КР_ALEX!$F$7:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-109.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-109.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-109.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-109.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-109.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-109.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-85.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-105.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-141</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>КР_ALEX!$G$7:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-189.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-189.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-189.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-60.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-107.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-107.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-14B0-4024-9A56-8AFB63066BB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1924026704"/>
+        <c:axId val="1924022128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1924026704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="thickThin" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924022128"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1924022128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="-250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924026704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3645,6 +4786,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4678,6 +5859,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5268,6 +6965,43 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5576,12 +7310,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6017,11 +7751,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6564,7 +8298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6575,11 +8309,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7116,4 +8850,563 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6" t="str">
+        <f>A7</f>
+        <v>Ua</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-36.5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-63.2</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <f>B7*$B$10</f>
+        <v>219</v>
+      </c>
+      <c r="G8" s="6">
+        <f>C7*$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10">
+        <v>-36.5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>63.2</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6" t="str">
+        <f>A8</f>
+        <v>Ub</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <f>B8*$B$10</f>
+        <v>-109.5</v>
+      </c>
+      <c r="G11" s="6">
+        <f>C8*B10</f>
+        <v>-189.60000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6" t="str">
+        <f>A9</f>
+        <v>Uс</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>-4.29</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <f>B9*B10</f>
+        <v>-109.5</v>
+      </c>
+      <c r="G14" s="6">
+        <f>C9*B10</f>
+        <v>189.60000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>-5.26</v>
+      </c>
+      <c r="C15" s="13">
+        <v>-3.04</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12">
+        <v>-7.05</v>
+      </c>
+      <c r="C16" s="13">
+        <v>-8.4</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6">
+        <f>F8</f>
+        <v>219</v>
+      </c>
+      <c r="G16" s="6">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14">
+        <v>20</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <f>F14</f>
+        <v>-109.5</v>
+      </c>
+      <c r="G17" s="6">
+        <f>G14</f>
+        <v>189.60000000000002</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <f>F11</f>
+        <v>-109.5</v>
+      </c>
+      <c r="G19" s="6">
+        <f>G11</f>
+        <v>-189.60000000000002</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <f>F14</f>
+        <v>-109.5</v>
+      </c>
+      <c r="G20" s="6">
+        <f>G14</f>
+        <v>189.60000000000002</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <f>F8</f>
+        <v>219</v>
+      </c>
+      <c r="G22" s="6">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <f>F11</f>
+        <v>-109.5</v>
+      </c>
+      <c r="G23" s="8">
+        <f>G11</f>
+        <v>-189.60000000000002</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="str">
+        <f>A13</f>
+        <v>Ia</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <f>B13*B17</f>
+        <v>50</v>
+      </c>
+      <c r="G26" s="6">
+        <f>C13*B17</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="6" t="str">
+        <f>A14</f>
+        <v>Ib</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <f>B14*B17</f>
+        <v>-85.8</v>
+      </c>
+      <c r="G29" s="6">
+        <f>C14*B17</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="6" t="str">
+        <f>A15</f>
+        <v>Ic</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <f>B15*B17</f>
+        <v>-105.19999999999999</v>
+      </c>
+      <c r="G32" s="6">
+        <f>C15*B17</f>
+        <v>-60.8</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="6" t="str">
+        <f>A16</f>
+        <v>In</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8">
+        <f>B16*B17</f>
+        <v>-141</v>
+      </c>
+      <c r="G35" s="8">
+        <f>C16*B17</f>
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="str">
+        <f>E28</f>
+        <v>Ib</v>
+      </c>
+      <c r="F37" s="6">
+        <f>F26</f>
+        <v>50</v>
+      </c>
+      <c r="G37" s="6">
+        <f>G26</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <f>F37+F29</f>
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="G38" s="6">
+        <f>G37+G29</f>
+        <v>-107.2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <f>F38</f>
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="G40">
+        <f>G38</f>
+        <v>-107.2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f>F40+F32</f>
+        <v>-141</v>
+      </c>
+      <c r="G41">
+        <f>G40+G32</f>
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <f>1/(A55*2*3.04*$B$53)</f>
+        <v>3.2894736842105261E-3</v>
+      </c>
+      <c r="C55">
+        <f>B55*1000000</f>
+        <v>3289.4736842105262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B57" si="0">1/(A56*2*3.04*$B$53)</f>
+        <v>8.2236842105263153E-4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C57" si="1">B56*1000000</f>
+        <v>822.36842105263156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.3157894736842105E-4</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>131.57894736842104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>